--- a/biology/Botanique/Parc_naturel_de_Rogalin/Parc_naturel_de_Rogalin.xlsx
+++ b/biology/Botanique/Parc_naturel_de_Rogalin/Parc_naturel_de_Rogalin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc naturel de Rogalin (en polonais : Rogaliński Park Krajobrazowy) , est un parc naturel de Pologne qui a été créé en 1997.
 Couvrant 12 640 hectares, il inclut deux réserves naturelles. Le parc s'étend le long des rives de la Warta et tient son nom du village de Rogalin, célèbre pour son palais et pour son parc qui contient des chênes centenaires.
